--- a/Vincent/Holografie/Kohärenzlänge_daten/daten.xlsx
+++ b/Vincent/Holografie/Kohärenzlänge_daten/daten.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>I_max</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>z/cm</t>
+  </si>
+  <si>
+    <t>Richtige Messung</t>
+  </si>
+  <si>
+    <t>Falsche Messung</t>
   </si>
 </sst>
 </file>
@@ -362,14 +368,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:J16"/>
+  <dimension ref="A3:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
@@ -378,7 +385,12 @@
     <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -401,7 +413,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>0</v>
       </c>
@@ -426,7 +438,7 @@
         <v>4.0321625443693165E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>2</v>
       </c>
@@ -447,11 +459,11 @@
         <v>0.69005847953216382</v>
       </c>
       <c r="J7">
-        <f t="shared" ref="J7:J16" si="1">((2*F7)/((D7+F7)*(D7+F7))*E7+(2*D7))/((D7+F7)*(D7+F7))*G7</f>
+        <f t="shared" ref="J7:J29" si="1">((2*F7)/((D7+F7)*(D7+F7))*E7+(2*D7))/((D7+F7)*(D7+F7))*G7</f>
         <v>2.9673393396833746E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>6</v>
       </c>
@@ -476,7 +488,7 @@
         <v>4.3404363072720435E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>10</v>
       </c>
@@ -501,7 +513,7 @@
         <v>6.8498703514611667E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>13</v>
       </c>
@@ -526,7 +538,7 @@
         <v>2.1376777825481329E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>15</v>
       </c>
@@ -551,7 +563,7 @@
         <v>2.0706999717855498E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>17</v>
       </c>
@@ -576,7 +588,7 @@
         <v>2.5257546229717064E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>19</v>
       </c>
@@ -601,7 +613,7 @@
         <v>1.3462720292815897E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>21</v>
       </c>
@@ -626,7 +638,7 @@
         <v>1.2442963734935888E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>23</v>
       </c>
@@ -651,7 +663,7 @@
         <v>9.1412622733572611E-3</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>25</v>
       </c>
@@ -676,9 +688,289 @@
         <v>4.6152547972971069E-3</v>
       </c>
     </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>-14</v>
+      </c>
+      <c r="D19">
+        <v>3.13</v>
+      </c>
+      <c r="E19">
+        <v>0.04</v>
+      </c>
+      <c r="F19">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="G19">
+        <v>0.04</v>
+      </c>
+      <c r="I19">
+        <f>(D19-F19)/(D19+F19)</f>
+        <v>0.47641509433962254</v>
+      </c>
+      <c r="J19">
+        <f>((2*F19)/((D19+F19)*(D19+F19))*E19+(2*D19))/((D19+F19)*(D19+F19))*G19</f>
+        <v>1.3939434585800282E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>-10</v>
+      </c>
+      <c r="D20">
+        <v>3.19</v>
+      </c>
+      <c r="E20">
+        <v>0.04</v>
+      </c>
+      <c r="F20">
+        <v>1.05</v>
+      </c>
+      <c r="G20">
+        <v>0.04</v>
+      </c>
+      <c r="I20">
+        <f>(D20-F20)/(D20+F20)</f>
+        <v>0.50471698113207542</v>
+      </c>
+      <c r="J20">
+        <f>((2*F20)/((D20+F20)*(D20+F20))*E20+(2*D20))/((D20+F20)*(D20+F20))*G20</f>
+        <v>1.4205839447557125E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>-6</v>
+      </c>
+      <c r="D21">
+        <v>3.73</v>
+      </c>
+      <c r="E21">
+        <v>0.06</v>
+      </c>
+      <c r="F21">
+        <v>0.61</v>
+      </c>
+      <c r="G21">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I21">
+        <f>(D21-F21)/(D21+F21)</f>
+        <v>0.71889400921658986</v>
+      </c>
+      <c r="J21">
+        <f>((2*F21)/((D21+F21)*(D21+F21))*E21+(2*D21))/((D21+F21)*(D21+F21))*G21</f>
+        <v>2.773853968313178E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>-2</v>
+      </c>
+      <c r="D22">
+        <v>4.01</v>
+      </c>
+      <c r="E22">
+        <v>0.12</v>
+      </c>
+      <c r="F22">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G22">
+        <v>0.04</v>
+      </c>
+      <c r="I22">
+        <f>(D22-F22)/(D22+F22)</f>
+        <v>0.86946386946386933</v>
+      </c>
+      <c r="J22">
+        <f>((2*F22)/((D22+F22)*(D22+F22))*E22+(2*D22))/((D22+F22)*(D22+F22))*G22</f>
+        <v>1.7438834521209329E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="E23">
+        <v>0.04</v>
+      </c>
+      <c r="F23">
+        <v>0.3</v>
+      </c>
+      <c r="G23">
+        <v>0.04</v>
+      </c>
+      <c r="I23">
+        <f>(D23-F23)/(D23+F23)</f>
+        <v>0.86238532110091748</v>
+      </c>
+      <c r="J23">
+        <f>((2*F23)/((D23+F23)*(D23+F23))*E23+(2*D23))/((D23+F23)*(D23+F23))*G23</f>
+        <v>1.7088760457852667E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>4.24</v>
+      </c>
+      <c r="E24">
+        <v>0.06</v>
+      </c>
+      <c r="F24">
+        <v>0.17</v>
+      </c>
+      <c r="G24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I24">
+        <f>(D24-F24)/(D24+F24)</f>
+        <v>0.92290249433106575</v>
+      </c>
+      <c r="J24">
+        <f>((2*F24)/((D24+F24)*(D24+F24))*E24+(2*D24))/((D24+F24)*(D24+F24))*G24</f>
+        <v>3.0526037309345139E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>4.05</v>
+      </c>
+      <c r="E25">
+        <v>0.05</v>
+      </c>
+      <c r="F25">
+        <v>0.19</v>
+      </c>
+      <c r="G25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I25">
+        <f>(D25-F25)/(D25+F25)</f>
+        <v>0.910377358490566</v>
+      </c>
+      <c r="J25">
+        <f>((2*F25)/((D25+F25)*(D25+F25))*E25+(2*D25))/((D25+F25)*(D25+F25))*G25</f>
+        <v>3.1543364017114418E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>6.2</v>
+      </c>
+      <c r="D26">
+        <v>4.03</v>
+      </c>
+      <c r="E26">
+        <v>0.1</v>
+      </c>
+      <c r="F26">
+        <v>0.3</v>
+      </c>
+      <c r="G26">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I26">
+        <f>(D26-F26)/(D26+F26)</f>
+        <v>0.86143187066974602</v>
+      </c>
+      <c r="J26">
+        <f>((2*F26)/((D26+F26)*(D26+F26))*E26+(2*D26))/((D26+F26)*(D26+F26))*G26</f>
+        <v>3.01043801578815E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="D27">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="E27">
+        <v>0.12</v>
+      </c>
+      <c r="F27">
+        <v>0.18</v>
+      </c>
+      <c r="G27">
+        <v>0.09</v>
+      </c>
+      <c r="I27">
+        <f>(D27-F27)/(D27+F27)</f>
+        <v>0.91685912240184764</v>
+      </c>
+      <c r="J27">
+        <f>((2*F27)/((D27+F27)*(D27+F27))*E27+(2*D27))/((D27+F27)*(D27+F27))*G27</f>
+        <v>3.9853397914855475E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D28">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="E28">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F28">
+        <v>0.33</v>
+      </c>
+      <c r="G28">
+        <v>0.09</v>
+      </c>
+      <c r="I28">
+        <f>(D28-F28)/(D28+F28)</f>
+        <v>0.85398230088495575</v>
+      </c>
+      <c r="J28">
+        <f>((2*F28)/((D28+F28)*(D28+F28))*E28+(2*D28))/((D28+F28)*(D28+F28))*G28</f>
+        <v>3.6925538425304529E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>18</v>
+      </c>
+      <c r="D29">
+        <v>2.79</v>
+      </c>
+      <c r="E29">
+        <v>0.03</v>
+      </c>
+      <c r="F29">
+        <v>1.41</v>
+      </c>
+      <c r="G29">
+        <v>0.03</v>
+      </c>
+      <c r="I29">
+        <f>(D29-F29)/(D29+F29)</f>
+        <v>0.32857142857142857</v>
+      </c>
+      <c r="J29">
+        <f>((2*F29)/((D29+F29)*(D29+F29))*E29+(2*D29))/((D29+F29)*(D29+F29))*G29</f>
+        <v>9.4979522421213373E-3</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="B6:G16">
-    <sortCondition ref="B6"/>
+  <sortState ref="B19:J29">
+    <sortCondition ref="B19"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
